--- a/HW2/part_3/results/eo_pdc_20_OUT_size3.xlsx
+++ b/HW2/part_3/results/eo_pdc_20_OUT_size3.xlsx
@@ -37,40 +37,40 @@
     <t>Uniqueness</t>
   </si>
   <si>
-    <t>1064.6+-14.7</t>
-  </si>
-  <si>
-    <t>933.4+-17.1</t>
-  </si>
-  <si>
-    <t>206.5+-8.8</t>
-  </si>
-  <si>
-    <t>1250.4+-14.5</t>
-  </si>
-  <si>
-    <t>304.0+-13.9</t>
-  </si>
-  <si>
-    <t>20.6+-4.6</t>
-  </si>
-  <si>
-    <t>369.9+-12.1</t>
-  </si>
-  <si>
-    <t>27.6+-3.3</t>
-  </si>
-  <si>
-    <t>16.0+-4.1</t>
-  </si>
-  <si>
-    <t>33.7+-6.1</t>
-  </si>
-  <si>
-    <t>59.4+-6.2</t>
-  </si>
-  <si>
-    <t>13.6+-3.0</t>
+    <t>1064.8+-15.4</t>
+  </si>
+  <si>
+    <t>933.1+-16.9</t>
+  </si>
+  <si>
+    <t>207.4+-9.3</t>
+  </si>
+  <si>
+    <t>1250.5+-15.0</t>
+  </si>
+  <si>
+    <t>304.4+-14.1</t>
+  </si>
+  <si>
+    <t>20.2+-4.5</t>
+  </si>
+  <si>
+    <t>371.0+-12.6</t>
+  </si>
+  <si>
+    <t>27.5+-3.3</t>
+  </si>
+  <si>
+    <t>16.0+-4.4</t>
+  </si>
+  <si>
+    <t>33.6+-5.8</t>
+  </si>
+  <si>
+    <t>58.9+-6.4</t>
+  </si>
+  <si>
+    <t>13.6+-2.9</t>
   </si>
   <si>
     <t>0.6+-0.7</t>
@@ -474,7 +474,7 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>-13.92</v>
+        <v>-13.32</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>-5.82</v>
+        <v>-5.85</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>-6.55</v>
+        <v>-6.31</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -552,7 +552,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>-12</v>
+        <v>-11.62</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -578,7 +578,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>10.37</v>
+        <v>10.18</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>12</v>
       </c>
       <c r="E7">
-        <v>6.61</v>
+        <v>6.89</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -630,7 +630,7 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>-9.77</v>
+        <v>-9.44</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>-4.74</v>
+        <v>-4.76</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>15</v>
       </c>
       <c r="E10">
-        <v>-2.66</v>
+        <v>-2.49</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="G10">
         <v>1.3</v>
@@ -708,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="E11">
-        <v>-1.93</v>
+        <v>-2.01</v>
       </c>
       <c r="F11">
         <v>0.987</v>
@@ -734,7 +734,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>9.720000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>2.78</v>
+        <v>2.91</v>
       </c>
       <c r="F13">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G13">
         <v>5.71</v>
@@ -786,10 +786,10 @@
         <v>19</v>
       </c>
       <c r="E14">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="F14">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
       <c r="G14">
         <v>0.78</v>
